--- a/TS issue report.xlsx
+++ b/TS issue report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Team Number</t>
   </si>
@@ -103,6 +103,35 @@
   </si>
   <si>
     <t>I accidently choose my desktop to be the source folder for  synchronization. There are metadata all over the place, is there any way to centralize the metadata.</t>
+  </si>
+  <si>
+    <t>task will not be performed</t>
+  </si>
+  <si>
+    <t>Did I do something wrong? Firstly I registered the laptop I am using, then I proceed to create a new task. However, after I click the green triangle, the content in the folder I've specified does not sync to the folder in 
+the temp folder.</t>
+  </si>
+  <si>
+    <t>Program throw error</t>
+  </si>
+  <si>
+    <t>If I create a folder in the folder I specified to sync, 
+and click on the green triangle, program will popup a
+window saying that "Could not find flie "Name_of_newly_created_folder". However, The folder will still be synced over.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If now I delete the newly created folder in the folder I specified to sync, and click on the green triangle, program will popup a window saying that "Access to the path "Name_of_newly_created_folder" is denied. </t>
+  </si>
+  <si>
+    <t>Create a folder in the folder I specified to sync, name it "AA". Create a file called BB.doc in folder "AA". Click the green triangle to sync. Then delete folder "AA" in the source folder, create another empty folder with the  same name. click the green triangle to sync, file "BB.doc" will now be deleted.</t>
+  </si>
+  <si>
+    <t>Task naming</t>
+  </si>
+  <si>
+    <t>It will be better if the program could name the task by
+a combination of informations like data, time, folder info, etc instead of using integers. I saw this number is keep on increasing, it is hard for me to relate the integer to the task I've created and I am not sure if it
+will cause some issue if this integer value is getting larger.</t>
   </si>
 </sst>
 </file>
@@ -477,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -660,40 +689,90 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+    <row r="11" spans="1:5" ht="94.5" customHeight="1">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="75">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="75">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="90">
+      <c r="A14" s="3">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="120">
+      <c r="A15" s="3">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
